--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="86">
   <si>
     <t>TC</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>password18</t>
-  </si>
-  <si>
-    <t>telemetry_basic.json</t>
   </si>
   <si>
     <t>brcm22-bst1@yahoo.com</t>
@@ -740,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,13 +820,13 @@
         <v>19</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>12</v>
@@ -841,7 +838,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>53</v>
@@ -879,13 +876,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>12</v>
@@ -897,7 +894,7 @@
         <v>56</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>56</v>
@@ -935,13 +932,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
@@ -953,7 +950,7 @@
         <v>59</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>59</v>
@@ -991,13 +988,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>12</v>
@@ -1009,7 +1006,7 @@
         <v>62</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>62</v>
@@ -1047,13 +1044,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
@@ -1065,7 +1062,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>65</v>
@@ -1103,13 +1100,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -1121,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>24</v>
@@ -1159,13 +1156,13 @@
         <v>19</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>12</v>
@@ -1177,7 +1174,7 @@
         <v>68</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>68</v>
@@ -1215,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
@@ -1233,7 +1230,7 @@
         <v>71</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>71</v>
@@ -1271,13 +1268,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
@@ -1289,7 +1286,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>37</v>
@@ -1327,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>12</v>
@@ -1345,7 +1342,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -1383,13 +1380,13 @@
         <v>21</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -1401,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -1439,13 +1436,13 @@
         <v>22</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>12</v>
@@ -1457,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>24</v>
@@ -1484,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>12</v>
@@ -1495,13 +1492,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>12</v>
@@ -1513,7 +1510,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>37</v>
@@ -1551,13 +1548,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>12</v>
@@ -1569,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -1607,13 +1604,13 @@
         <v>49</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>47</v>
@@ -1625,7 +1622,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>37</v>
@@ -1663,13 +1660,13 @@
         <v>49</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>47</v>
@@ -1681,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -1719,13 +1716,13 @@
         <v>49</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>47</v>
@@ -1737,7 +1734,7 @@
         <v>24</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>24</v>
@@ -1775,13 +1772,13 @@
         <v>50</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>46</v>
@@ -1831,13 +1828,13 @@
         <v>50</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>46</v>
@@ -1887,13 +1884,13 @@
         <v>50</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>46</v>
@@ -1943,13 +1940,13 @@
         <v>51</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>12</v>
@@ -1999,13 +1996,13 @@
         <v>17</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>12</v>
@@ -2055,13 +2052,13 @@
         <v>18</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>12</v>
@@ -2111,13 +2108,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>12</v>
@@ -2167,13 +2164,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>12</v>
@@ -2223,13 +2220,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="6" t="s">
@@ -2277,13 +2274,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>12</v>
@@ -2333,13 +2330,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>12</v>
@@ -2389,13 +2386,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>12</v>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="87">
   <si>
     <t>TC</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>http://localhost:5000/api/test/api_key-auth/productusage-espwa</t>
+  </si>
+  <si>
+    <t>testcase03a</t>
   </si>
 </sst>
 </file>
@@ -737,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>74</v>

--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -741,7 +741,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="38.7109375" customWidth="1"/>
-    <col min="8" max="8" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.140625" customWidth="1"/>
     <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="26.5703125" customWidth="1"/>
     <col min="11" max="14" width="16.140625" customWidth="1"/>
